--- a/results/pvalue_SIDER_all_pathway_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.301</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.347</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.466</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.187</t>
+          <t>13.302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.132</t>
+          <t>11.874</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.065</t>
+          <t>9.785</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.806</t>
+          <t>3.678</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.548</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.482</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.999</t>
+          <t>10.369</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.815</t>
+          <t>10.221</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.443</t>
+          <t>8.792</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.656</t>
+          <t>6.558</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
